--- a/data/trans_dic/P25C$pormicuenta_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25C$pormicuenta_2023-Edad-trans_dic.xlsx
@@ -613,7 +613,7 @@
         <v>0.9682630814055585</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8916644184662305</v>
+        <v>0.8916644184662306</v>
       </c>
     </row>
     <row r="8">
@@ -624,13 +624,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4551286410493317</v>
+        <v>0.5269142402335726</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8341997688479043</v>
+        <v>0.8383767084731364</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7230331910636525</v>
+        <v>0.7239904207742163</v>
       </c>
     </row>
     <row r="9">
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.945517555075759</v>
+        <v>0.9593769464333167</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9590849403467634</v>
+        <v>0.9621048622685419</v>
       </c>
     </row>
     <row r="10">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8735415413831964</v>
+        <v>0.8735415413831963</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9081694879141884</v>
+        <v>0.9081694879141885</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.8920370307214928</v>
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6954848093295866</v>
+        <v>0.7063463913931279</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8219968523531763</v>
+        <v>0.8208323685515756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8088375389269845</v>
+        <v>0.8026774326493229</v>
       </c>
     </row>
     <row r="12">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9549384453897567</v>
+        <v>0.9533825651702063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9611936203702894</v>
+        <v>0.9596880363512555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9404510757953315</v>
+        <v>0.9419539320816933</v>
       </c>
     </row>
     <row r="13">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9164647950295424</v>
+        <v>0.9164647950295423</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.9071151644215674</v>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8521849923427228</v>
+        <v>0.85657119858244</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.849386967666293</v>
+        <v>0.8473968461594474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8639919971912347</v>
+        <v>0.8674864792942945</v>
       </c>
     </row>
     <row r="15">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9633453498795803</v>
+        <v>0.9619621312124587</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9457920572989349</v>
+        <v>0.9467665820760158</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9427271928484056</v>
+        <v>0.9421470861412475</v>
       </c>
     </row>
     <row r="16">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8456328953156796</v>
+        <v>0.8456328953156795</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8625840083794398</v>
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7836601941442326</v>
+        <v>0.7869762760456963</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8011627128332731</v>
+        <v>0.7922900719838714</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8074014098988594</v>
+        <v>0.8102189025591509</v>
       </c>
     </row>
     <row r="18">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8934976395090263</v>
+        <v>0.8948914871252938</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9132553958024981</v>
+        <v>0.9131283651195349</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8886393915878731</v>
+        <v>0.8910239553830109</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.905258097608954</v>
+        <v>0.9052580976089537</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8796447839535803</v>
+        <v>0.8796447839535804</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8996052716226765</v>
+        <v>0.8996052716226761</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8565022991863379</v>
+        <v>0.8648371385392198</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7958556137137804</v>
+        <v>0.7876614450684732</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8603871341113942</v>
+        <v>0.862141923944217</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9385959509656878</v>
+        <v>0.9410304757644898</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9370476968989145</v>
+        <v>0.9398738387386519</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9300151034665779</v>
+        <v>0.9299387485091812</v>
       </c>
     </row>
     <row r="22">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9477580461857985</v>
+        <v>0.9477580461857986</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.897241953294978</v>
+        <v>0.8972419532949779</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.9410696116304388</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8984325619945718</v>
+        <v>0.9046157570556406</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.771953238035491</v>
+        <v>0.7488481657659318</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8975617808310783</v>
+        <v>0.9011716194372642</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9746931634578263</v>
+        <v>0.9763710772406984</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9688207308433758</v>
+        <v>0.9744159155505081</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9654300899705531</v>
+        <v>0.9681679898493863</v>
       </c>
     </row>
     <row r="25">
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8679674533782626</v>
+        <v>0.8670308574323653</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8735816153412042</v>
+        <v>0.8762292197343785</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8795726797158098</v>
+        <v>0.8795757053328891</v>
       </c>
     </row>
     <row r="27">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9169416397889747</v>
+        <v>0.9164981926433304</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9254627508654043</v>
+        <v>0.9266796079388769</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9141870674529152</v>
+        <v>0.9143024162964509</v>
       </c>
     </row>
     <row r="28">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11712</v>
+        <v>13560</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28420</v>
+        <v>28563</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>43239</v>
+        <v>43296</v>
       </c>
     </row>
     <row r="11">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24332</v>
+        <v>24689</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>34069</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>57355</v>
+        <v>57536</v>
       </c>
     </row>
     <row r="12">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34275</v>
+        <v>34810</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>46444</v>
+        <v>46378</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>85561</v>
+        <v>84910</v>
       </c>
     </row>
     <row r="15">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47061</v>
+        <v>46985</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>54308</v>
+        <v>54223</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>99484</v>
+        <v>99643</v>
       </c>
     </row>
     <row r="16">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>96631</v>
+        <v>97128</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>78552</v>
+        <v>78368</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>177873</v>
+        <v>178592</v>
       </c>
     </row>
     <row r="19">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>109236</v>
+        <v>109079</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>87468</v>
+        <v>87558</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>194082</v>
+        <v>193963</v>
       </c>
     </row>
     <row r="20">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>129368</v>
+        <v>129916</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>75570</v>
+        <v>74734</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>209446</v>
+        <v>210177</v>
       </c>
     </row>
     <row r="23">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>147500</v>
+        <v>147730</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>86144</v>
+        <v>86132</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>230520</v>
+        <v>231139</v>
       </c>
     </row>
     <row r="24">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>146978</v>
+        <v>148408</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>38677</v>
+        <v>38279</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>189457</v>
+        <v>189844</v>
       </c>
     </row>
     <row r="27">
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>161065</v>
+        <v>161483</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>45539</v>
+        <v>45676</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>204789</v>
+        <v>204773</v>
       </c>
     </row>
     <row r="28">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>115594</v>
+        <v>116390</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15157</v>
+        <v>14704</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>133106</v>
+        <v>133641</v>
       </c>
     </row>
     <row r="31">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>125406</v>
+        <v>125622</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19023</v>
+        <v>19133</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>143170</v>
+        <v>143576</v>
       </c>
     </row>
     <row r="32">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>573049</v>
+        <v>572430</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>319635</v>
+        <v>320604</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>902537</v>
+        <v>902541</v>
       </c>
     </row>
     <row r="35">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>605382</v>
+        <v>605090</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>338618</v>
+        <v>339063</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>938056</v>
+        <v>938174</v>
       </c>
     </row>
     <row r="36">
